--- a/Python/스타트코딩/업무자동화/03.엑셀자동화/거래처A매입현황.xlsx
+++ b/Python/스타트코딩/업무자동화/03.엑셀자동화/거래처A매입현황.xlsx
@@ -413,14 +413,125 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>제품명</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>가격</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>수량</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>합계</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2030-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f>C2*D2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2030-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f>C2*D3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2030-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f>C2*D3</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Python/스타트코딩/업무자동화/03.엑셀자동화/거래처A매입현황.xlsx
+++ b/Python/스타트코딩/업무자동화/03.엑셀자동화/거래처A매입현황.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,28 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2030-01-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f>C2*D3</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
